--- a/xlsx/世界最佳居住城市_intext.xlsx
+++ b/xlsx/世界最佳居住城市_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>世界最佳居住城市</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%B8%96%E7%94%9F%E6%B4%BB%E8%B3%AA%E7%B4%A0%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>美世生活質素調查</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_世界最佳居住城市</t>
+    <t>美世生活质素调查</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_世界最佳居住城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>經濟學人</t>
+    <t>经济学人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E4%B8%BB</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E6%80%A7</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -167,9 +167,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
   </si>
   <si>
@@ -179,15 +176,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC</t>
   </si>
   <si>
-    <t>墨爾本</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%89%E5%B0%BC</t>
   </si>
   <si>
@@ -197,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9</t>
   </si>
   <si>
-    <t>斯德哥爾摩</t>
+    <t>斯德哥尔摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -209,15 +203,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF</t>
   </si>
   <si>
-    <t>溫哥華</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E8%BE%9B%E5%9F%BA</t>
   </si>
   <si>
-    <t>赫爾辛基</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91</t>
   </si>
   <si>
@@ -227,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%BB%8E%E4%B8%96</t>
   </si>
   <si>
-    <t>蘇黎世</t>
+    <t>苏黎世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -245,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%A1</t>
   </si>
   <si>
-    <t>福岡</t>
+    <t>福冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -281,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>馬德里</t>
+    <t>马德里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -293,9 +281,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>奧克蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%96%AF%E6%9C%AC</t>
   </si>
   <si>
@@ -323,25 +308,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>漢堡</t>
+    <t>汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6</t>
   </si>
   <si>
-    <t>日內瓦</t>
+    <t>日内瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E9%99%B8</t>
   </si>
   <si>
-    <t>奧斯陸</t>
+    <t>奥斯陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -359,19 +344,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD</t>
   </si>
   <si>
-    <t>波特蘭</t>
+    <t>波特兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%B8%96%E5%92%A8%E8%AF%A2</t>
@@ -395,9 +380,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%BB%8E%E4%B8%96</t>
   </si>
   <si>
-    <t>苏黎世</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A1%9E%E5%B0%94%E5%A4%9A%E5%A4%AB</t>
   </si>
   <si>
@@ -413,9 +395,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%86%85%E7%93%A6</t>
   </si>
   <si>
-    <t>日内瓦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -425,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA</t>
@@ -449,37 +428,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8C%E6%8F%9B</t>
   </si>
   <si>
-    <t>兌換</t>
+    <t>兑换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>媒體</t>
+    <t>媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>醫療</t>
+    <t>医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
@@ -491,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>醫院</t>
+    <t>医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85</t>
   </si>
   <si>
-    <t>傳染病</t>
+    <t>传染病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E6%B0%B4</t>
@@ -515,25 +494,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>空氣污染</t>
+    <t>空气污染</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>動物</t>
+    <t>动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E8%9F%B2</t>
   </si>
   <si>
-    <t>昆蟲</t>
+    <t>昆虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>學校</t>
+    <t>学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -545,25 +524,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>自然環境</t>
+    <t>自然环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%81%BD%E5%AE%B3</t>
   </si>
   <si>
-    <t>自然災害</t>
+    <t>自然灾害</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>公共服務</t>
+    <t>公共服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -575,19 +554,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>電力</t>
+    <t>电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A</t>
   </si>
   <si>
-    <t>電訊</t>
+    <t>电讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>郵政</t>
+    <t>邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%A4%E9%80%9A</t>
@@ -599,37 +578,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E6%93%81%E5%A1%9E</t>
   </si>
   <si>
-    <t>交通擁塞</t>
+    <t>交通拥塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>飛機場</t>
+    <t>飞机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>餐廳</t>
+    <t>餐厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>戲劇</t>
+    <t>戏剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E6%9C%83</t>
   </si>
   <si>
-    <t>音樂會</t>
+    <t>音乐会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94</t>
@@ -641,13 +620,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E9%99%A2</t>
   </si>
   <si>
-    <t>電影院</t>
+    <t>电影院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>運動</t>
+    <t>运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E9%96%92</t>
@@ -659,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E5%93%81</t>
   </si>
   <si>
-    <t>消費品</t>
+    <t>消费品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%89%E5%93%81</t>
@@ -671,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E9%A1%9E</t>
   </si>
   <si>
-    <t>魚類</t>
+    <t>鱼类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%9E%9C</t>
@@ -689,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%B2%BE%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>酒精飲料</t>
+    <t>酒精饮料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E6%88%BF</t>
@@ -707,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E9%9B%BB</t>
   </si>
   <si>
-    <t>家電</t>
+    <t>家电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%A2%E4%BF%B1</t>
   </si>
   <si>
-    <t>傢俱</t>
+    <t>家俱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%B1%8B</t>
@@ -1801,7 +1780,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1827,10 +1806,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1856,10 +1835,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>6</v>
@@ -1885,10 +1864,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1914,10 +1893,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1943,10 +1922,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1972,10 +1951,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2001,10 +1980,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2030,10 +2009,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2059,10 +2038,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2088,10 +2067,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2117,10 +2096,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -2146,10 +2125,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2175,10 +2154,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2204,10 +2183,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2233,10 +2212,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2262,10 +2241,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2291,10 +2270,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2320,10 +2299,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2349,10 +2328,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2378,10 +2357,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2407,10 +2386,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2436,10 +2415,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2465,10 +2444,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2494,10 +2473,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2523,10 +2502,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2552,10 +2531,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2581,10 +2560,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2610,10 +2589,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2639,10 +2618,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2668,10 +2647,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2697,10 +2676,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2726,10 +2705,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2755,10 +2734,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2784,10 +2763,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2813,10 +2792,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2842,10 +2821,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>24</v>
@@ -2871,10 +2850,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2900,10 +2879,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2929,10 +2908,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2958,10 +2937,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2987,10 +2966,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3016,10 +2995,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3045,10 +3024,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3074,10 +3053,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3103,10 +3082,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3132,10 +3111,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3161,10 +3140,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -3190,10 +3169,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3219,10 +3198,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3248,10 +3227,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3277,10 +3256,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3306,10 +3285,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3335,10 +3314,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3364,10 +3343,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3393,10 +3372,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3422,10 +3401,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3451,10 +3430,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3480,10 +3459,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3509,10 +3488,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3538,10 +3517,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3567,10 +3546,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3596,10 +3575,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3625,10 +3604,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3654,10 +3633,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3683,10 +3662,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3712,10 +3691,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3741,10 +3720,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -3770,10 +3749,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3799,10 +3778,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3828,10 +3807,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3857,10 +3836,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3886,10 +3865,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3915,10 +3894,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3944,10 +3923,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3973,10 +3952,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4002,10 +3981,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4031,10 +4010,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4060,10 +4039,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4089,10 +4068,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4118,10 +4097,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4147,10 +4126,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4176,10 +4155,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4205,10 +4184,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4234,10 +4213,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4263,10 +4242,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4292,10 +4271,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4321,10 +4300,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4350,10 +4329,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4379,10 +4358,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -4408,10 +4387,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4437,10 +4416,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4466,10 +4445,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4495,10 +4474,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4524,10 +4503,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>6</v>
@@ -4553,10 +4532,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
